--- a/Muster_Worte.xlsx
+++ b/Muster_Worte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktglbuc-my.sharepoint.com/personal/bernd_christian_kantar_com/Documents/Documents/DEVELOPMENT/PYTHON/HELPTOOLS/LATEIN_TRAIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="8_{8276E646-E70E-4281-9184-4BF756554AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25E272A-E8B4-4870-A8B8-6AED141144E6}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="8_{8276E646-E70E-4281-9184-4BF756554AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{115A8A13-B1A6-4A57-A902-87D8D8B6DE56}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5E7EAF3B-007D-43D8-A9E6-77B1501C31A6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E7EAF3B-007D-43D8-A9E6-77B1501C31A6}"/>
   </bookViews>
   <sheets>
     <sheet name="substantive" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="378">
   <si>
     <t>Kasus</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>A-Deklination</t>
-  </si>
-  <si>
-    <t>O-Deklination neutral</t>
   </si>
   <si>
     <t>Nominativ</t>
@@ -1095,6 +1092,177 @@
       </rPr>
       <t>ris</t>
     </r>
+  </si>
+  <si>
+    <t>Imperativ</t>
+  </si>
+  <si>
+    <t>clama</t>
+  </si>
+  <si>
+    <t>clamate</t>
+  </si>
+  <si>
+    <t>tene</t>
+  </si>
+  <si>
+    <t>tenete</t>
+  </si>
+  <si>
+    <t>audi</t>
+  </si>
+  <si>
+    <t>audite</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>agite</t>
+  </si>
+  <si>
+    <t>cupe</t>
+  </si>
+  <si>
+    <t>cupite</t>
+  </si>
+  <si>
+    <t>O-Deklination auf er</t>
+  </si>
+  <si>
+    <t>magister</t>
+  </si>
+  <si>
+    <t>magistri</t>
+  </si>
+  <si>
+    <t>magistro</t>
+  </si>
+  <si>
+    <t>magistrum</t>
+  </si>
+  <si>
+    <t>magistrorum</t>
+  </si>
+  <si>
+    <t>magistris</t>
+  </si>
+  <si>
+    <t>magistros</t>
+  </si>
+  <si>
+    <t>Kons-Deklination</t>
+  </si>
+  <si>
+    <t>clamari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teneri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">audiri </t>
+  </si>
+  <si>
+    <t>agi</t>
+  </si>
+  <si>
+    <t>cupi</t>
+  </si>
+  <si>
+    <t>Kons-Deklination neutrum</t>
+  </si>
+  <si>
+    <t>O-Deklination neutrum</t>
+  </si>
+  <si>
+    <t>senex</t>
+  </si>
+  <si>
+    <t>senis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seni </t>
+  </si>
+  <si>
+    <t>senem</t>
+  </si>
+  <si>
+    <t>sene</t>
+  </si>
+  <si>
+    <t>senes</t>
+  </si>
+  <si>
+    <t>senum</t>
+  </si>
+  <si>
+    <t>senuibus</t>
+  </si>
+  <si>
+    <t>senibus</t>
+  </si>
+  <si>
+    <t>corpus</t>
+  </si>
+  <si>
+    <t>corporis</t>
+  </si>
+  <si>
+    <t>corpore</t>
+  </si>
+  <si>
+    <t>corpora</t>
+  </si>
+  <si>
+    <t>corporum</t>
+  </si>
+  <si>
+    <t>corporibus</t>
+  </si>
+  <si>
+    <t>E-Deklination</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>rei</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re </t>
+  </si>
+  <si>
+    <t>rerum</t>
+  </si>
+  <si>
+    <t>rebus</t>
+  </si>
+  <si>
+    <t>U-Deklination</t>
+  </si>
+  <si>
+    <t>manus</t>
+  </si>
+  <si>
+    <t>manUs</t>
+  </si>
+  <si>
+    <t>manui</t>
+  </si>
+  <si>
+    <t>manum</t>
+  </si>
+  <si>
+    <t>manu</t>
+  </si>
+  <si>
+    <t>manuum</t>
+  </si>
+  <si>
+    <t>manibus</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9752495-9A71-4B39-B0EE-7FF47F231935}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1637,7 @@
     <col min="3" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1483,177 +1651,342 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I3" t="s">
+        <v>365</v>
+      </c>
+      <c r="J3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" t="s">
+        <v>351</v>
+      </c>
+      <c r="H5" t="s">
+        <v>357</v>
+      </c>
+      <c r="I5" t="s">
+        <v>366</v>
+      </c>
+      <c r="J5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" t="s">
+        <v>360</v>
+      </c>
+      <c r="I7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" t="s">
+        <v>361</v>
+      </c>
+      <c r="I8" t="s">
+        <v>368</v>
+      </c>
+      <c r="J8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I9" t="s">
+        <v>369</v>
+      </c>
+      <c r="J9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" t="s">
+        <v>360</v>
+      </c>
+      <c r="I10" t="s">
+        <v>364</v>
+      </c>
+      <c r="J10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
+      <c r="F11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G11" t="s">
+        <v>356</v>
+      </c>
+      <c r="H11" t="s">
+        <v>362</v>
+      </c>
+      <c r="I11" t="s">
+        <v>369</v>
+      </c>
+      <c r="J11" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -1663,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64195B45-DBAB-4E67-AFA4-C35B0055E6C0}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,233 +2012,215 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
+        <v>321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>326</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>327</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>342</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>344</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1914,27 +2229,27 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1943,27 +2258,27 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>318</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>319</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1972,114 +2287,114 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2091,24 +2406,24 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2120,24 +2435,24 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -2149,111 +2464,111 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2262,27 +2577,27 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -2291,27 +2606,27 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2320,114 +2635,114 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2439,24 +2754,24 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2468,24 +2783,24 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -2497,111 +2812,111 @@
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="I29" t="s">
-        <v>257</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G32" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2610,27 +2925,27 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="H33" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2639,27 +2954,27 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>320</v>
+        <v>234</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2668,114 +2983,114 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="G35" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="H35" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I36" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="G37" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H37" t="s">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H38" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2787,24 +3102,24 @@
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="G39" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="H39" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="I39" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2816,24 +3131,24 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>274</v>
       </c>
       <c r="H40" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="I40" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2845,111 +3160,111 @@
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="G41" t="s">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="H41" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="I41" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F42" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H43" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H44" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I44" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2958,27 +3273,27 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="F45" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="G45" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H45" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2987,27 +3302,27 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="G46" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="H46" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="I46" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -3016,114 +3331,114 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F47" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="G47" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="H47" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="I47" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H49" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I49" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H50" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I50" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3132,27 +3447,27 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="F51" t="s">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="G51" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="H51" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="I51" t="s">
-        <v>312</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -3161,27 +3476,27 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="F52" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="I52" t="s">
-        <v>313</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3190,109 +3505,196 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="F53" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="G53" t="s">
-        <v>302</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="I53" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F54" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G54" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H54" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I54" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F55" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G55" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H55" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I55" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F56" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G56" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I56" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" t="s">
+        <v>290</v>
+      </c>
+      <c r="F57" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" t="s">
+        <v>302</v>
+      </c>
+      <c r="H57" t="s">
+        <v>307</v>
+      </c>
+      <c r="I57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" t="s">
+        <v>291</v>
+      </c>
+      <c r="F58" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" t="s">
+        <v>303</v>
+      </c>
+      <c r="H58" t="s">
+        <v>308</v>
+      </c>
+      <c r="I58" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" t="s">
+        <v>292</v>
+      </c>
+      <c r="F59" t="s">
+        <v>298</v>
+      </c>
+      <c r="G59" t="s">
+        <v>304</v>
+      </c>
+      <c r="H59" t="s">
+        <v>310</v>
+      </c>
+      <c r="I59" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Muster_Worte.xlsx
+++ b/Muster_Worte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktglbuc-my.sharepoint.com/personal/bernd_christian_kantar_com/Documents/Documents/DEVELOPMENT/PYTHON/HELPTOOLS/LATEIN_TRAIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{8276E646-E70E-4281-9184-4BF756554AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{115A8A13-B1A6-4A57-A902-87D8D8B6DE56}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="8_{8276E646-E70E-4281-9184-4BF756554AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30BD1883-0139-45D4-B858-56EECE932C2A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E7EAF3B-007D-43D8-A9E6-77B1501C31A6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5E7EAF3B-007D-43D8-A9E6-77B1501C31A6}"/>
   </bookViews>
   <sheets>
     <sheet name="substantive" sheetId="1" r:id="rId1"/>
@@ -441,9 +441,6 @@
     <t>cupiebam</t>
   </si>
   <si>
-    <t>cupiebs</t>
-  </si>
-  <si>
     <t>cupiebat</t>
   </si>
   <si>
@@ -1263,6 +1260,9 @@
   </si>
   <si>
     <t>manibus</t>
+  </si>
+  <si>
+    <t>cupiebas</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9752495-9A71-4B39-B0EE-7FF47F231935}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1651,22 +1651,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1686,19 +1686,19 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1718,19 +1718,19 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1750,19 +1750,19 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1782,19 +1782,19 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1814,19 +1814,19 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1846,19 +1846,19 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1878,19 +1878,19 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1910,19 +1910,19 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1942,19 +1942,19 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1974,19 +1974,19 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -1998,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64195B45-DBAB-4E67-AFA4-C35B0055E6C0}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,48 +2041,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2093,19 +2093,19 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" t="s">
         <v>341</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>342</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>343</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>344</v>
-      </c>
-      <c r="I4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2357,10 +2357,10 @@
         <v>93</v>
       </c>
       <c r="H13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I13" t="s">
         <v>317</v>
-      </c>
-      <c r="I13" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2534,7 +2534,7 @@
         <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2563,7 +2563,7 @@
         <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
         <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>132</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2667,19 +2667,19 @@
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2696,19 +2696,19 @@
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2725,19 +2725,19 @@
         <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2754,19 +2754,19 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2783,19 +2783,19 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2812,19 +2812,19 @@
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2841,19 +2841,19 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H30" t="s">
         <v>247</v>
       </c>
-      <c r="H30" t="s">
-        <v>248</v>
-      </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2870,19 +2870,19 @@
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2899,19 +2899,19 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2928,19 +2928,19 @@
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2957,19 +2957,19 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2986,19 +2986,19 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3015,19 +3015,19 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3044,19 +3044,19 @@
         <v>39</v>
       </c>
       <c r="E37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F37" t="s">
         <v>319</v>
       </c>
-      <c r="F37" t="s">
-        <v>320</v>
-      </c>
       <c r="G37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H37" t="s">
         <v>99</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3073,19 +3073,19 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3102,19 +3102,19 @@
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3131,19 +3131,19 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3160,19 +3160,19 @@
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3189,19 +3189,19 @@
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3218,19 +3218,19 @@
         <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3247,19 +3247,19 @@
         <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3276,19 +3276,19 @@
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3305,19 +3305,19 @@
         <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3334,19 +3334,19 @@
         <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3363,19 +3363,19 @@
         <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3392,19 +3392,19 @@
         <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3421,19 +3421,19 @@
         <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3450,19 +3450,19 @@
         <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3479,19 +3479,19 @@
         <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3508,24 +3508,24 @@
         <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3537,24 +3537,24 @@
         <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3566,24 +3566,24 @@
         <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3595,24 +3595,24 @@
         <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3624,24 +3624,24 @@
         <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -3653,24 +3653,24 @@
         <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3682,19 +3682,19 @@
         <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I59" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Muster_Worte.xlsx
+++ b/Muster_Worte.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktglbuc-my.sharepoint.com/personal/bernd_christian_kantar_com/Documents/Documents/DEVELOPMENT/PYTHON/HELPTOOLS/LATEIN_TRAIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="8_{8276E646-E70E-4281-9184-4BF756554AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30BD1883-0139-45D4-B858-56EECE932C2A}"/>
+  <xr:revisionPtr revIDLastSave="700" documentId="8_{8276E646-E70E-4281-9184-4BF756554AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F889FE36-DFC8-40F9-8EAE-E183CCB3BAF4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5E7EAF3B-007D-43D8-A9E6-77B1501C31A6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5E7EAF3B-007D-43D8-A9E6-77B1501C31A6}"/>
   </bookViews>
   <sheets>
     <sheet name="substantive" sheetId="1" r:id="rId1"/>
     <sheet name="verben" sheetId="2" r:id="rId2"/>
+    <sheet name="ppp_ppa" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="712">
   <si>
     <t>Kasus</t>
   </si>
@@ -1263,6 +1264,1008 @@
   </si>
   <si>
     <t>cupiebas</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>clamata es</t>
+  </si>
+  <si>
+    <t>clamatus sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clamatum est </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clamati summus </t>
+  </si>
+  <si>
+    <t>clamatae estis</t>
+  </si>
+  <si>
+    <t>clamata sunt</t>
+  </si>
+  <si>
+    <t>clamatus eram</t>
+  </si>
+  <si>
+    <t>clamata eras</t>
+  </si>
+  <si>
+    <t>clamatum erat</t>
+  </si>
+  <si>
+    <t>clamati eramus</t>
+  </si>
+  <si>
+    <t>clamatae eratis</t>
+  </si>
+  <si>
+    <t>clamata erunt</t>
+  </si>
+  <si>
+    <t>clamata erant</t>
+  </si>
+  <si>
+    <t>clamatus ero</t>
+  </si>
+  <si>
+    <t>clamata eris</t>
+  </si>
+  <si>
+    <t>clamatum erit</t>
+  </si>
+  <si>
+    <t>clamati erimus</t>
+  </si>
+  <si>
+    <t>clamatae eritis</t>
+  </si>
+  <si>
+    <t>tenitus sum</t>
+  </si>
+  <si>
+    <t>tenita es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenitum est </t>
+  </si>
+  <si>
+    <t xml:space="preserve">teniti summus </t>
+  </si>
+  <si>
+    <t>tenitae estis</t>
+  </si>
+  <si>
+    <t>tenita sunt</t>
+  </si>
+  <si>
+    <t>tenitus eram</t>
+  </si>
+  <si>
+    <t>tenita eras</t>
+  </si>
+  <si>
+    <t>tenitum erat</t>
+  </si>
+  <si>
+    <t>teniti eramus</t>
+  </si>
+  <si>
+    <t>tenitae eratis</t>
+  </si>
+  <si>
+    <t>tenita erant</t>
+  </si>
+  <si>
+    <t>tenitus ero</t>
+  </si>
+  <si>
+    <t>tenita eris</t>
+  </si>
+  <si>
+    <t>tenitum erit</t>
+  </si>
+  <si>
+    <t>teniti erimus</t>
+  </si>
+  <si>
+    <t>tenitae eritis</t>
+  </si>
+  <si>
+    <t>tenita erunt</t>
+  </si>
+  <si>
+    <t>auditus sum</t>
+  </si>
+  <si>
+    <t>audita es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditum est </t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditi summus </t>
+  </si>
+  <si>
+    <t>auditae estis</t>
+  </si>
+  <si>
+    <t>audita sunt</t>
+  </si>
+  <si>
+    <t>auditus eram</t>
+  </si>
+  <si>
+    <t>audita eras</t>
+  </si>
+  <si>
+    <t>auditum erat</t>
+  </si>
+  <si>
+    <t>auditi eramus</t>
+  </si>
+  <si>
+    <t>auditae eratis</t>
+  </si>
+  <si>
+    <t>audita erant</t>
+  </si>
+  <si>
+    <t>auditus ero</t>
+  </si>
+  <si>
+    <t>audita eris</t>
+  </si>
+  <si>
+    <t>auditum erit</t>
+  </si>
+  <si>
+    <t>auditi erimus</t>
+  </si>
+  <si>
+    <t>auditae eritis</t>
+  </si>
+  <si>
+    <t>audita erunt</t>
+  </si>
+  <si>
+    <t>actus sum</t>
+  </si>
+  <si>
+    <t>acta es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actum est </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acti summus </t>
+  </si>
+  <si>
+    <t>actae estis</t>
+  </si>
+  <si>
+    <t>acta sunt</t>
+  </si>
+  <si>
+    <t>actus eram</t>
+  </si>
+  <si>
+    <t>acta eras</t>
+  </si>
+  <si>
+    <t>actum erat</t>
+  </si>
+  <si>
+    <t>acti eramus</t>
+  </si>
+  <si>
+    <t>actae eratis</t>
+  </si>
+  <si>
+    <t>acta erant</t>
+  </si>
+  <si>
+    <t>actus ero</t>
+  </si>
+  <si>
+    <t>acta eris</t>
+  </si>
+  <si>
+    <t>actum erit</t>
+  </si>
+  <si>
+    <t>acti erimus</t>
+  </si>
+  <si>
+    <t>actae eritis</t>
+  </si>
+  <si>
+    <t>acta erunt</t>
+  </si>
+  <si>
+    <t>cupitus sum</t>
+  </si>
+  <si>
+    <t>cupita es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cupitum est </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cupiti summus </t>
+  </si>
+  <si>
+    <t>cupitae estis</t>
+  </si>
+  <si>
+    <t>cupita sunt</t>
+  </si>
+  <si>
+    <t>cupitus eram</t>
+  </si>
+  <si>
+    <t>cupita eras</t>
+  </si>
+  <si>
+    <t>cupitum erat</t>
+  </si>
+  <si>
+    <t>cupiti eramus</t>
+  </si>
+  <si>
+    <t>cupitae eratis</t>
+  </si>
+  <si>
+    <t>cupita erant</t>
+  </si>
+  <si>
+    <t>cupitus ero</t>
+  </si>
+  <si>
+    <t>cupita eris</t>
+  </si>
+  <si>
+    <t>cupitum erit</t>
+  </si>
+  <si>
+    <t>cupiti erimus</t>
+  </si>
+  <si>
+    <t>cupitae eritis</t>
+  </si>
+  <si>
+    <t>cupita erunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen </t>
+  </si>
+  <si>
+    <t>dat</t>
+  </si>
+  <si>
+    <t>akk</t>
+  </si>
+  <si>
+    <t>abl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>PPA</t>
+  </si>
+  <si>
+    <t>clamatus</t>
+  </si>
+  <si>
+    <t>clamati</t>
+  </si>
+  <si>
+    <t>clamato</t>
+  </si>
+  <si>
+    <t>clamatum</t>
+  </si>
+  <si>
+    <t>clamata</t>
+  </si>
+  <si>
+    <t>clamatae</t>
+  </si>
+  <si>
+    <t>clamatam</t>
+  </si>
+  <si>
+    <t>clamatorum</t>
+  </si>
+  <si>
+    <t>clamatis</t>
+  </si>
+  <si>
+    <t>clamatos</t>
+  </si>
+  <si>
+    <t>clamatarum</t>
+  </si>
+  <si>
+    <t>clamatas</t>
+  </si>
+  <si>
+    <t>tenitus</t>
+  </si>
+  <si>
+    <t>teniti</t>
+  </si>
+  <si>
+    <t>tenito</t>
+  </si>
+  <si>
+    <t>tenitum</t>
+  </si>
+  <si>
+    <t>tenita</t>
+  </si>
+  <si>
+    <t>tenitae</t>
+  </si>
+  <si>
+    <t>tenitam</t>
+  </si>
+  <si>
+    <t>tenitorum</t>
+  </si>
+  <si>
+    <t>tenitis</t>
+  </si>
+  <si>
+    <t>tenitos</t>
+  </si>
+  <si>
+    <t>tenitarum</t>
+  </si>
+  <si>
+    <t>tenitas</t>
+  </si>
+  <si>
+    <t>auditus</t>
+  </si>
+  <si>
+    <t>auditi</t>
+  </si>
+  <si>
+    <t>audito</t>
+  </si>
+  <si>
+    <t>auditum</t>
+  </si>
+  <si>
+    <t>audita</t>
+  </si>
+  <si>
+    <t>auditae</t>
+  </si>
+  <si>
+    <t>auditam</t>
+  </si>
+  <si>
+    <t>auditorum</t>
+  </si>
+  <si>
+    <t>auditos</t>
+  </si>
+  <si>
+    <t>auditarum</t>
+  </si>
+  <si>
+    <t>auditas</t>
+  </si>
+  <si>
+    <t>actus</t>
+  </si>
+  <si>
+    <t>acti</t>
+  </si>
+  <si>
+    <t>acto</t>
+  </si>
+  <si>
+    <t>actum</t>
+  </si>
+  <si>
+    <t>acta</t>
+  </si>
+  <si>
+    <t>actae</t>
+  </si>
+  <si>
+    <t>actam</t>
+  </si>
+  <si>
+    <t>actorum</t>
+  </si>
+  <si>
+    <t>actis</t>
+  </si>
+  <si>
+    <t>actos</t>
+  </si>
+  <si>
+    <t>actarum</t>
+  </si>
+  <si>
+    <t>actas</t>
+  </si>
+  <si>
+    <t>cupitus</t>
+  </si>
+  <si>
+    <t>cupiti</t>
+  </si>
+  <si>
+    <t>cupito</t>
+  </si>
+  <si>
+    <t>cupitum</t>
+  </si>
+  <si>
+    <t>cupita</t>
+  </si>
+  <si>
+    <t>cupitae</t>
+  </si>
+  <si>
+    <t>cupitam</t>
+  </si>
+  <si>
+    <t>cupitorum</t>
+  </si>
+  <si>
+    <t>cupitos</t>
+  </si>
+  <si>
+    <t>cupitarum</t>
+  </si>
+  <si>
+    <t>cupitas</t>
+  </si>
+  <si>
+    <t>clamans</t>
+  </si>
+  <si>
+    <t>clamantis</t>
+  </si>
+  <si>
+    <t>clamanti</t>
+  </si>
+  <si>
+    <t>clamantem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clamante </t>
+  </si>
+  <si>
+    <t>clamanns</t>
+  </si>
+  <si>
+    <t>clamantes</t>
+  </si>
+  <si>
+    <t>clamantium</t>
+  </si>
+  <si>
+    <t>clamantibus</t>
+  </si>
+  <si>
+    <t>clamantia</t>
+  </si>
+  <si>
+    <t>tenens</t>
+  </si>
+  <si>
+    <t>tenentis</t>
+  </si>
+  <si>
+    <t>tenenti</t>
+  </si>
+  <si>
+    <t>tenentem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenente </t>
+  </si>
+  <si>
+    <t>tenenns</t>
+  </si>
+  <si>
+    <t>tenentes</t>
+  </si>
+  <si>
+    <t>tenentium</t>
+  </si>
+  <si>
+    <t>tenentibus</t>
+  </si>
+  <si>
+    <t>tenentia</t>
+  </si>
+  <si>
+    <t>audiens</t>
+  </si>
+  <si>
+    <t>audientis</t>
+  </si>
+  <si>
+    <t>audienti</t>
+  </si>
+  <si>
+    <t>audientem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audiente </t>
+  </si>
+  <si>
+    <t>audienns</t>
+  </si>
+  <si>
+    <t>audientes</t>
+  </si>
+  <si>
+    <t>audientium</t>
+  </si>
+  <si>
+    <t>audientibus</t>
+  </si>
+  <si>
+    <t>audientia</t>
+  </si>
+  <si>
+    <t>agiens</t>
+  </si>
+  <si>
+    <t>agientis</t>
+  </si>
+  <si>
+    <t>agienti</t>
+  </si>
+  <si>
+    <t>agientem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agiente </t>
+  </si>
+  <si>
+    <t>agienns</t>
+  </si>
+  <si>
+    <t>agientes</t>
+  </si>
+  <si>
+    <t>agientium</t>
+  </si>
+  <si>
+    <t>agientibus</t>
+  </si>
+  <si>
+    <t>agientia</t>
+  </si>
+  <si>
+    <t>cupiens</t>
+  </si>
+  <si>
+    <t>cupientis</t>
+  </si>
+  <si>
+    <t>cupienti</t>
+  </si>
+  <si>
+    <t>cupientem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cupiente </t>
+  </si>
+  <si>
+    <t>cupienns</t>
+  </si>
+  <si>
+    <t>cupientes</t>
+  </si>
+  <si>
+    <t>cupientium</t>
+  </si>
+  <si>
+    <t>cupientibus</t>
+  </si>
+  <si>
+    <t>cupientia</t>
+  </si>
+  <si>
+    <t>Konjunktiv Imperfect</t>
+  </si>
+  <si>
+    <t>clamarem</t>
+  </si>
+  <si>
+    <t>clamares</t>
+  </si>
+  <si>
+    <t>clamaret</t>
+  </si>
+  <si>
+    <t>clamaremus</t>
+  </si>
+  <si>
+    <t>clamaretis</t>
+  </si>
+  <si>
+    <t>clamarent</t>
+  </si>
+  <si>
+    <t>clamarer</t>
+  </si>
+  <si>
+    <t>clamareris</t>
+  </si>
+  <si>
+    <t>clamaretur</t>
+  </si>
+  <si>
+    <t>clamaremur</t>
+  </si>
+  <si>
+    <t>clamaremini</t>
+  </si>
+  <si>
+    <t>clamarentur</t>
+  </si>
+  <si>
+    <t>tenerem</t>
+  </si>
+  <si>
+    <t>teneres</t>
+  </si>
+  <si>
+    <t>teneret</t>
+  </si>
+  <si>
+    <t>teneremus</t>
+  </si>
+  <si>
+    <t>teneretis</t>
+  </si>
+  <si>
+    <t>tenerent</t>
+  </si>
+  <si>
+    <t>tenerer</t>
+  </si>
+  <si>
+    <t>tenereris</t>
+  </si>
+  <si>
+    <t>teneretur</t>
+  </si>
+  <si>
+    <t>teneremur</t>
+  </si>
+  <si>
+    <t>teneremini</t>
+  </si>
+  <si>
+    <t>tenerentur</t>
+  </si>
+  <si>
+    <t>audirem</t>
+  </si>
+  <si>
+    <t>audires</t>
+  </si>
+  <si>
+    <t>audiret</t>
+  </si>
+  <si>
+    <t>audiremus</t>
+  </si>
+  <si>
+    <t>audiretis</t>
+  </si>
+  <si>
+    <t>audirent</t>
+  </si>
+  <si>
+    <t>audirer</t>
+  </si>
+  <si>
+    <t>audireris</t>
+  </si>
+  <si>
+    <t>audiretur</t>
+  </si>
+  <si>
+    <t>audiremur</t>
+  </si>
+  <si>
+    <t>audiremini</t>
+  </si>
+  <si>
+    <t>audirentur</t>
+  </si>
+  <si>
+    <t>agerem</t>
+  </si>
+  <si>
+    <t>ageres</t>
+  </si>
+  <si>
+    <t>ageret</t>
+  </si>
+  <si>
+    <t>ageremus</t>
+  </si>
+  <si>
+    <t>ageretis</t>
+  </si>
+  <si>
+    <t>agerent</t>
+  </si>
+  <si>
+    <t>agerer</t>
+  </si>
+  <si>
+    <t>agereris</t>
+  </si>
+  <si>
+    <t>ageretur</t>
+  </si>
+  <si>
+    <t>ageremur</t>
+  </si>
+  <si>
+    <t>ageremini</t>
+  </si>
+  <si>
+    <t>agerentur</t>
+  </si>
+  <si>
+    <t>cuperem</t>
+  </si>
+  <si>
+    <t>cuperes</t>
+  </si>
+  <si>
+    <t>cuperet</t>
+  </si>
+  <si>
+    <t>cuperemus</t>
+  </si>
+  <si>
+    <t>cuperetis</t>
+  </si>
+  <si>
+    <t>cuperent</t>
+  </si>
+  <si>
+    <t>cuperer</t>
+  </si>
+  <si>
+    <t>cupereris</t>
+  </si>
+  <si>
+    <t>cuperetur</t>
+  </si>
+  <si>
+    <t>cuperemur</t>
+  </si>
+  <si>
+    <t>cuperemini</t>
+  </si>
+  <si>
+    <t>cuperentur</t>
+  </si>
+  <si>
+    <t>Konjunktiv Plusquamperfect</t>
+  </si>
+  <si>
+    <t>clamavissem</t>
+  </si>
+  <si>
+    <t>clamavisses</t>
+  </si>
+  <si>
+    <t>clamavisset</t>
+  </si>
+  <si>
+    <t>clamavissemus</t>
+  </si>
+  <si>
+    <t>clamavissetis</t>
+  </si>
+  <si>
+    <t>clamavissent</t>
+  </si>
+  <si>
+    <t>tenuissem</t>
+  </si>
+  <si>
+    <t>tenuisses</t>
+  </si>
+  <si>
+    <t>tenuisset</t>
+  </si>
+  <si>
+    <t>tenuissemus</t>
+  </si>
+  <si>
+    <t>tenuissetis</t>
+  </si>
+  <si>
+    <t>tenuissent</t>
+  </si>
+  <si>
+    <t>audivissem</t>
+  </si>
+  <si>
+    <t>audivisses</t>
+  </si>
+  <si>
+    <t>audivisset</t>
+  </si>
+  <si>
+    <t>audivissemus</t>
+  </si>
+  <si>
+    <t>audivissetis</t>
+  </si>
+  <si>
+    <t>audivissent</t>
+  </si>
+  <si>
+    <t>egissem</t>
+  </si>
+  <si>
+    <t>egisses</t>
+  </si>
+  <si>
+    <t>egisset</t>
+  </si>
+  <si>
+    <t>egissemus</t>
+  </si>
+  <si>
+    <t>egissetis</t>
+  </si>
+  <si>
+    <t>egissent</t>
+  </si>
+  <si>
+    <t>cupivissem</t>
+  </si>
+  <si>
+    <t>cupivisses</t>
+  </si>
+  <si>
+    <t>cupivisset</t>
+  </si>
+  <si>
+    <t>cupivissemus</t>
+  </si>
+  <si>
+    <t>cupivissetis</t>
+  </si>
+  <si>
+    <t>cupivissent</t>
+  </si>
+  <si>
+    <t>clamatus essem</t>
+  </si>
+  <si>
+    <t>clamatum esset</t>
+  </si>
+  <si>
+    <t>clamata esses</t>
+  </si>
+  <si>
+    <t>clamati essemus</t>
+  </si>
+  <si>
+    <t>clamatae essetis</t>
+  </si>
+  <si>
+    <t>clamata essent</t>
+  </si>
+  <si>
+    <t>tenitus essem</t>
+  </si>
+  <si>
+    <t>tenita esses</t>
+  </si>
+  <si>
+    <t>tenitum esset</t>
+  </si>
+  <si>
+    <t>teniti essemus</t>
+  </si>
+  <si>
+    <t>tenitae essetis</t>
+  </si>
+  <si>
+    <t>tenita essent</t>
+  </si>
+  <si>
+    <t>auditus essem</t>
+  </si>
+  <si>
+    <t>audita esses</t>
+  </si>
+  <si>
+    <t>auditum esset</t>
+  </si>
+  <si>
+    <t>auditi essemus</t>
+  </si>
+  <si>
+    <t>auditae essetis</t>
+  </si>
+  <si>
+    <t>audita essent</t>
+  </si>
+  <si>
+    <t>actus essem</t>
+  </si>
+  <si>
+    <t>acta esses</t>
+  </si>
+  <si>
+    <t>actum esset</t>
+  </si>
+  <si>
+    <t>acti essemus</t>
+  </si>
+  <si>
+    <t>actae essetis</t>
+  </si>
+  <si>
+    <t>acta essent</t>
+  </si>
+  <si>
+    <t>cupitus essem</t>
+  </si>
+  <si>
+    <t>cupita esses</t>
+  </si>
+  <si>
+    <t>cupitum esset</t>
+  </si>
+  <si>
+    <t>cupiti essemus</t>
+  </si>
+  <si>
+    <t>cupitae essetis</t>
+  </si>
+  <si>
+    <t>cupita essent</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>casus</t>
+  </si>
+  <si>
+    <t>numerus</t>
+  </si>
+  <si>
+    <t>genus</t>
   </si>
 </sst>
 </file>
@@ -1996,10 +2999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64195B45-DBAB-4E67-AFA4-C35B0055E6C0}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,8 +4700,3010 @@
         <v>315</v>
       </c>
     </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>380</v>
+      </c>
+      <c r="F60" t="s">
+        <v>397</v>
+      </c>
+      <c r="G60" t="s">
+        <v>415</v>
+      </c>
+      <c r="H60" t="s">
+        <v>433</v>
+      </c>
+      <c r="I60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" t="s">
+        <v>379</v>
+      </c>
+      <c r="F61" t="s">
+        <v>398</v>
+      </c>
+      <c r="G61" t="s">
+        <v>416</v>
+      </c>
+      <c r="H61" t="s">
+        <v>434</v>
+      </c>
+      <c r="I61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
+        <v>381</v>
+      </c>
+      <c r="F62" t="s">
+        <v>399</v>
+      </c>
+      <c r="G62" t="s">
+        <v>417</v>
+      </c>
+      <c r="H62" t="s">
+        <v>435</v>
+      </c>
+      <c r="I62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" t="s">
+        <v>382</v>
+      </c>
+      <c r="F63" t="s">
+        <v>400</v>
+      </c>
+      <c r="G63" t="s">
+        <v>418</v>
+      </c>
+      <c r="H63" t="s">
+        <v>436</v>
+      </c>
+      <c r="I63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" t="s">
+        <v>383</v>
+      </c>
+      <c r="F64" t="s">
+        <v>401</v>
+      </c>
+      <c r="G64" t="s">
+        <v>419</v>
+      </c>
+      <c r="H64" t="s">
+        <v>437</v>
+      </c>
+      <c r="I64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" t="s">
+        <v>384</v>
+      </c>
+      <c r="F65" t="s">
+        <v>402</v>
+      </c>
+      <c r="G65" t="s">
+        <v>420</v>
+      </c>
+      <c r="H65" t="s">
+        <v>438</v>
+      </c>
+      <c r="I65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" t="s">
+        <v>385</v>
+      </c>
+      <c r="F66" t="s">
+        <v>403</v>
+      </c>
+      <c r="G66" t="s">
+        <v>421</v>
+      </c>
+      <c r="H66" t="s">
+        <v>439</v>
+      </c>
+      <c r="I66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" t="s">
+        <v>386</v>
+      </c>
+      <c r="F67" t="s">
+        <v>404</v>
+      </c>
+      <c r="G67" t="s">
+        <v>422</v>
+      </c>
+      <c r="H67" t="s">
+        <v>440</v>
+      </c>
+      <c r="I67" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" t="s">
+        <v>387</v>
+      </c>
+      <c r="F68" t="s">
+        <v>405</v>
+      </c>
+      <c r="G68" t="s">
+        <v>423</v>
+      </c>
+      <c r="H68" t="s">
+        <v>441</v>
+      </c>
+      <c r="I68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" t="s">
+        <v>388</v>
+      </c>
+      <c r="F69" t="s">
+        <v>406</v>
+      </c>
+      <c r="G69" t="s">
+        <v>424</v>
+      </c>
+      <c r="H69" t="s">
+        <v>442</v>
+      </c>
+      <c r="I69" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" t="s">
+        <v>389</v>
+      </c>
+      <c r="F70" t="s">
+        <v>407</v>
+      </c>
+      <c r="G70" t="s">
+        <v>425</v>
+      </c>
+      <c r="H70" t="s">
+        <v>443</v>
+      </c>
+      <c r="I70" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" t="s">
+        <v>391</v>
+      </c>
+      <c r="F71" t="s">
+        <v>408</v>
+      </c>
+      <c r="G71" t="s">
+        <v>426</v>
+      </c>
+      <c r="H71" t="s">
+        <v>444</v>
+      </c>
+      <c r="I71" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" t="s">
+        <v>392</v>
+      </c>
+      <c r="F72" t="s">
+        <v>409</v>
+      </c>
+      <c r="G72" t="s">
+        <v>427</v>
+      </c>
+      <c r="H72" t="s">
+        <v>445</v>
+      </c>
+      <c r="I72" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" t="s">
+        <v>393</v>
+      </c>
+      <c r="F73" t="s">
+        <v>410</v>
+      </c>
+      <c r="G73" t="s">
+        <v>428</v>
+      </c>
+      <c r="H73" t="s">
+        <v>446</v>
+      </c>
+      <c r="I73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" t="s">
+        <v>394</v>
+      </c>
+      <c r="F74" t="s">
+        <v>411</v>
+      </c>
+      <c r="G74" t="s">
+        <v>429</v>
+      </c>
+      <c r="H74" t="s">
+        <v>447</v>
+      </c>
+      <c r="I74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" t="s">
+        <v>395</v>
+      </c>
+      <c r="F75" t="s">
+        <v>412</v>
+      </c>
+      <c r="G75" t="s">
+        <v>430</v>
+      </c>
+      <c r="H75" t="s">
+        <v>448</v>
+      </c>
+      <c r="I75" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" t="s">
+        <v>396</v>
+      </c>
+      <c r="F76" t="s">
+        <v>413</v>
+      </c>
+      <c r="G76" t="s">
+        <v>431</v>
+      </c>
+      <c r="H76" t="s">
+        <v>449</v>
+      </c>
+      <c r="I76" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" t="s">
+        <v>390</v>
+      </c>
+      <c r="F77" t="s">
+        <v>414</v>
+      </c>
+      <c r="G77" t="s">
+        <v>432</v>
+      </c>
+      <c r="H77" t="s">
+        <v>450</v>
+      </c>
+      <c r="I77" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>586</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>587</v>
+      </c>
+      <c r="F78" t="s">
+        <v>599</v>
+      </c>
+      <c r="G78" t="s">
+        <v>611</v>
+      </c>
+      <c r="H78" t="s">
+        <v>623</v>
+      </c>
+      <c r="I78" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>586</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" t="s">
+        <v>588</v>
+      </c>
+      <c r="F79" t="s">
+        <v>600</v>
+      </c>
+      <c r="G79" t="s">
+        <v>612</v>
+      </c>
+      <c r="H79" t="s">
+        <v>624</v>
+      </c>
+      <c r="I79" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>586</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" t="s">
+        <v>589</v>
+      </c>
+      <c r="F80" t="s">
+        <v>601</v>
+      </c>
+      <c r="G80" t="s">
+        <v>613</v>
+      </c>
+      <c r="H80" t="s">
+        <v>625</v>
+      </c>
+      <c r="I80" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>586</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" t="s">
+        <v>590</v>
+      </c>
+      <c r="F81" t="s">
+        <v>602</v>
+      </c>
+      <c r="G81" t="s">
+        <v>614</v>
+      </c>
+      <c r="H81" t="s">
+        <v>626</v>
+      </c>
+      <c r="I81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>586</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" t="s">
+        <v>591</v>
+      </c>
+      <c r="F82" t="s">
+        <v>603</v>
+      </c>
+      <c r="G82" t="s">
+        <v>615</v>
+      </c>
+      <c r="H82" t="s">
+        <v>627</v>
+      </c>
+      <c r="I82" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>586</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" t="s">
+        <v>592</v>
+      </c>
+      <c r="F83" t="s">
+        <v>604</v>
+      </c>
+      <c r="G83" t="s">
+        <v>616</v>
+      </c>
+      <c r="H83" t="s">
+        <v>628</v>
+      </c>
+      <c r="I83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>586</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" t="s">
+        <v>593</v>
+      </c>
+      <c r="F84" t="s">
+        <v>605</v>
+      </c>
+      <c r="G84" t="s">
+        <v>617</v>
+      </c>
+      <c r="H84" t="s">
+        <v>629</v>
+      </c>
+      <c r="I84" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>586</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" t="s">
+        <v>594</v>
+      </c>
+      <c r="F85" t="s">
+        <v>606</v>
+      </c>
+      <c r="G85" t="s">
+        <v>618</v>
+      </c>
+      <c r="H85" t="s">
+        <v>630</v>
+      </c>
+      <c r="I85" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>586</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" t="s">
+        <v>595</v>
+      </c>
+      <c r="F86" t="s">
+        <v>607</v>
+      </c>
+      <c r="G86" t="s">
+        <v>619</v>
+      </c>
+      <c r="H86" t="s">
+        <v>631</v>
+      </c>
+      <c r="I86" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>586</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" t="s">
+        <v>596</v>
+      </c>
+      <c r="F87" t="s">
+        <v>608</v>
+      </c>
+      <c r="G87" t="s">
+        <v>620</v>
+      </c>
+      <c r="H87" t="s">
+        <v>632</v>
+      </c>
+      <c r="I87" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>586</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" t="s">
+        <v>597</v>
+      </c>
+      <c r="F88" t="s">
+        <v>609</v>
+      </c>
+      <c r="G88" t="s">
+        <v>621</v>
+      </c>
+      <c r="H88" t="s">
+        <v>633</v>
+      </c>
+      <c r="I88" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>586</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" t="s">
+        <v>598</v>
+      </c>
+      <c r="F89" t="s">
+        <v>610</v>
+      </c>
+      <c r="G89" t="s">
+        <v>622</v>
+      </c>
+      <c r="H89" t="s">
+        <v>634</v>
+      </c>
+      <c r="I89" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>647</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" t="s">
+        <v>648</v>
+      </c>
+      <c r="F90" t="s">
+        <v>654</v>
+      </c>
+      <c r="G90" t="s">
+        <v>660</v>
+      </c>
+      <c r="H90" t="s">
+        <v>666</v>
+      </c>
+      <c r="I90" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>647</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" t="s">
+        <v>649</v>
+      </c>
+      <c r="F91" t="s">
+        <v>655</v>
+      </c>
+      <c r="G91" t="s">
+        <v>661</v>
+      </c>
+      <c r="H91" t="s">
+        <v>667</v>
+      </c>
+      <c r="I91" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>647</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" t="s">
+        <v>650</v>
+      </c>
+      <c r="F92" t="s">
+        <v>656</v>
+      </c>
+      <c r="G92" t="s">
+        <v>662</v>
+      </c>
+      <c r="H92" t="s">
+        <v>668</v>
+      </c>
+      <c r="I92" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>647</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" t="s">
+        <v>651</v>
+      </c>
+      <c r="F93" t="s">
+        <v>657</v>
+      </c>
+      <c r="G93" t="s">
+        <v>663</v>
+      </c>
+      <c r="H93" t="s">
+        <v>669</v>
+      </c>
+      <c r="I93" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>647</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" t="s">
+        <v>652</v>
+      </c>
+      <c r="F94" t="s">
+        <v>658</v>
+      </c>
+      <c r="G94" t="s">
+        <v>664</v>
+      </c>
+      <c r="H94" t="s">
+        <v>670</v>
+      </c>
+      <c r="I94" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>647</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" t="s">
+        <v>653</v>
+      </c>
+      <c r="F95" t="s">
+        <v>659</v>
+      </c>
+      <c r="G95" t="s">
+        <v>665</v>
+      </c>
+      <c r="H95" t="s">
+        <v>671</v>
+      </c>
+      <c r="I95" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>647</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" t="s">
+        <v>678</v>
+      </c>
+      <c r="F96" t="s">
+        <v>684</v>
+      </c>
+      <c r="G96" t="s">
+        <v>690</v>
+      </c>
+      <c r="H96" t="s">
+        <v>696</v>
+      </c>
+      <c r="I96" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>647</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" t="s">
+        <v>680</v>
+      </c>
+      <c r="F97" t="s">
+        <v>685</v>
+      </c>
+      <c r="G97" t="s">
+        <v>691</v>
+      </c>
+      <c r="H97" t="s">
+        <v>697</v>
+      </c>
+      <c r="I97" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>647</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" t="s">
+        <v>679</v>
+      </c>
+      <c r="F98" t="s">
+        <v>686</v>
+      </c>
+      <c r="G98" t="s">
+        <v>692</v>
+      </c>
+      <c r="H98" t="s">
+        <v>698</v>
+      </c>
+      <c r="I98" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>647</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" t="s">
+        <v>681</v>
+      </c>
+      <c r="F99" t="s">
+        <v>687</v>
+      </c>
+      <c r="G99" t="s">
+        <v>693</v>
+      </c>
+      <c r="H99" t="s">
+        <v>699</v>
+      </c>
+      <c r="I99" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>647</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" t="s">
+        <v>682</v>
+      </c>
+      <c r="F100" t="s">
+        <v>688</v>
+      </c>
+      <c r="G100" t="s">
+        <v>694</v>
+      </c>
+      <c r="H100" t="s">
+        <v>700</v>
+      </c>
+      <c r="I100" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>647</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" t="s">
+        <v>683</v>
+      </c>
+      <c r="F101" t="s">
+        <v>689</v>
+      </c>
+      <c r="G101" t="s">
+        <v>695</v>
+      </c>
+      <c r="H101" t="s">
+        <v>701</v>
+      </c>
+      <c r="I101" t="s">
+        <v>707</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6721CA-BCF3-400D-8374-412832E2C339}">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H3" t="s">
+        <v>514</v>
+      </c>
+      <c r="I3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G4" t="s">
+        <v>504</v>
+      </c>
+      <c r="H4" t="s">
+        <v>515</v>
+      </c>
+      <c r="I4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G5" t="s">
+        <v>505</v>
+      </c>
+      <c r="H5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E6" t="s">
+        <v>480</v>
+      </c>
+      <c r="F6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H6" t="s">
+        <v>515</v>
+      </c>
+      <c r="I6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H7" t="s">
+        <v>517</v>
+      </c>
+      <c r="I7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F8" t="s">
+        <v>495</v>
+      </c>
+      <c r="G8" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" t="s">
+        <v>518</v>
+      </c>
+      <c r="I8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" t="s">
+        <v>495</v>
+      </c>
+      <c r="G9" t="s">
+        <v>507</v>
+      </c>
+      <c r="H9" t="s">
+        <v>518</v>
+      </c>
+      <c r="I9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" t="s">
+        <v>496</v>
+      </c>
+      <c r="G10" t="s">
+        <v>508</v>
+      </c>
+      <c r="H10" t="s">
+        <v>519</v>
+      </c>
+      <c r="I10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G11" t="s">
+        <v>506</v>
+      </c>
+      <c r="H11" t="s">
+        <v>517</v>
+      </c>
+      <c r="I11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E12" t="s">
+        <v>481</v>
+      </c>
+      <c r="F12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G12" t="s">
+        <v>505</v>
+      </c>
+      <c r="H12" t="s">
+        <v>516</v>
+      </c>
+      <c r="I12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>476</v>
+      </c>
+      <c r="E13" t="s">
+        <v>479</v>
+      </c>
+      <c r="F13" t="s">
+        <v>491</v>
+      </c>
+      <c r="G13" t="s">
+        <v>503</v>
+      </c>
+      <c r="H13" t="s">
+        <v>514</v>
+      </c>
+      <c r="I13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E14" t="s">
+        <v>480</v>
+      </c>
+      <c r="F14" t="s">
+        <v>492</v>
+      </c>
+      <c r="G14" t="s">
+        <v>504</v>
+      </c>
+      <c r="H14" t="s">
+        <v>515</v>
+      </c>
+      <c r="I14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E15" t="s">
+        <v>481</v>
+      </c>
+      <c r="F15" t="s">
+        <v>493</v>
+      </c>
+      <c r="G15" t="s">
+        <v>505</v>
+      </c>
+      <c r="H15" t="s">
+        <v>516</v>
+      </c>
+      <c r="I15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>476</v>
+      </c>
+      <c r="E16" t="s">
+        <v>480</v>
+      </c>
+      <c r="F16" t="s">
+        <v>492</v>
+      </c>
+      <c r="G16" t="s">
+        <v>504</v>
+      </c>
+      <c r="H16" t="s">
+        <v>515</v>
+      </c>
+      <c r="I16" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>474</v>
+      </c>
+      <c r="E17" t="s">
+        <v>479</v>
+      </c>
+      <c r="F17" t="s">
+        <v>491</v>
+      </c>
+      <c r="G17" t="s">
+        <v>503</v>
+      </c>
+      <c r="H17" t="s">
+        <v>514</v>
+      </c>
+      <c r="I17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>474</v>
+      </c>
+      <c r="E18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>497</v>
+      </c>
+      <c r="G18" t="s">
+        <v>509</v>
+      </c>
+      <c r="H18" t="s">
+        <v>520</v>
+      </c>
+      <c r="I18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>378</v>
+      </c>
+      <c r="B19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>474</v>
+      </c>
+      <c r="E19" t="s">
+        <v>486</v>
+      </c>
+      <c r="F19" t="s">
+        <v>498</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>521</v>
+      </c>
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>474</v>
+      </c>
+      <c r="E20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F20" t="s">
+        <v>499</v>
+      </c>
+      <c r="G20" t="s">
+        <v>510</v>
+      </c>
+      <c r="H20" t="s">
+        <v>522</v>
+      </c>
+      <c r="I20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" t="s">
+        <v>486</v>
+      </c>
+      <c r="F21" t="s">
+        <v>498</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>521</v>
+      </c>
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22" t="s">
+        <v>469</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F22" t="s">
+        <v>495</v>
+      </c>
+      <c r="G22" t="s">
+        <v>507</v>
+      </c>
+      <c r="H22" t="s">
+        <v>518</v>
+      </c>
+      <c r="I22" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>475</v>
+      </c>
+      <c r="E23" t="s">
+        <v>488</v>
+      </c>
+      <c r="F23" t="s">
+        <v>500</v>
+      </c>
+      <c r="G23" t="s">
+        <v>511</v>
+      </c>
+      <c r="H23" t="s">
+        <v>523</v>
+      </c>
+      <c r="I23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" t="s">
+        <v>471</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E24" t="s">
+        <v>486</v>
+      </c>
+      <c r="F24" t="s">
+        <v>498</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>521</v>
+      </c>
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>475</v>
+      </c>
+      <c r="E25" t="s">
+        <v>489</v>
+      </c>
+      <c r="F25" t="s">
+        <v>501</v>
+      </c>
+      <c r="G25" t="s">
+        <v>512</v>
+      </c>
+      <c r="H25" t="s">
+        <v>524</v>
+      </c>
+      <c r="I25" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>475</v>
+      </c>
+      <c r="E26" t="s">
+        <v>486</v>
+      </c>
+      <c r="F26" t="s">
+        <v>498</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>521</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>378</v>
+      </c>
+      <c r="B27" t="s">
+        <v>469</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>476</v>
+      </c>
+      <c r="E27" t="s">
+        <v>482</v>
+      </c>
+      <c r="F27" t="s">
+        <v>494</v>
+      </c>
+      <c r="G27" t="s">
+        <v>506</v>
+      </c>
+      <c r="H27" t="s">
+        <v>517</v>
+      </c>
+      <c r="I27" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" t="s">
+        <v>485</v>
+      </c>
+      <c r="F28" t="s">
+        <v>497</v>
+      </c>
+      <c r="G28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H28" t="s">
+        <v>520</v>
+      </c>
+      <c r="I28" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>476</v>
+      </c>
+      <c r="E29" t="s">
+        <v>486</v>
+      </c>
+      <c r="F29" t="s">
+        <v>498</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>521</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B30" t="s">
+        <v>472</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" t="s">
+        <v>482</v>
+      </c>
+      <c r="F30" t="s">
+        <v>494</v>
+      </c>
+      <c r="G30" t="s">
+        <v>506</v>
+      </c>
+      <c r="H30" t="s">
+        <v>517</v>
+      </c>
+      <c r="I30" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>378</v>
+      </c>
+      <c r="B31" t="s">
+        <v>473</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>476</v>
+      </c>
+      <c r="E31" t="s">
+        <v>486</v>
+      </c>
+      <c r="F31" t="s">
+        <v>498</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>521</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>477</v>
+      </c>
+      <c r="B32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>474</v>
+      </c>
+      <c r="E32" t="s">
+        <v>536</v>
+      </c>
+      <c r="F32" t="s">
+        <v>546</v>
+      </c>
+      <c r="G32" t="s">
+        <v>556</v>
+      </c>
+      <c r="H32" t="s">
+        <v>566</v>
+      </c>
+      <c r="I32" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>477</v>
+      </c>
+      <c r="B33" t="s">
+        <v>470</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>474</v>
+      </c>
+      <c r="E33" t="s">
+        <v>537</v>
+      </c>
+      <c r="F33" t="s">
+        <v>547</v>
+      </c>
+      <c r="G33" t="s">
+        <v>557</v>
+      </c>
+      <c r="H33" t="s">
+        <v>567</v>
+      </c>
+      <c r="I33" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>477</v>
+      </c>
+      <c r="B34" t="s">
+        <v>471</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>474</v>
+      </c>
+      <c r="E34" t="s">
+        <v>538</v>
+      </c>
+      <c r="F34" t="s">
+        <v>548</v>
+      </c>
+      <c r="G34" t="s">
+        <v>558</v>
+      </c>
+      <c r="H34" t="s">
+        <v>568</v>
+      </c>
+      <c r="I34" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B35" t="s">
+        <v>472</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>474</v>
+      </c>
+      <c r="E35" t="s">
+        <v>539</v>
+      </c>
+      <c r="F35" t="s">
+        <v>549</v>
+      </c>
+      <c r="G35" t="s">
+        <v>559</v>
+      </c>
+      <c r="H35" t="s">
+        <v>569</v>
+      </c>
+      <c r="I35" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>477</v>
+      </c>
+      <c r="B36" t="s">
+        <v>473</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>474</v>
+      </c>
+      <c r="E36" t="s">
+        <v>540</v>
+      </c>
+      <c r="F36" t="s">
+        <v>550</v>
+      </c>
+      <c r="G36" t="s">
+        <v>560</v>
+      </c>
+      <c r="H36" t="s">
+        <v>570</v>
+      </c>
+      <c r="I36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>477</v>
+      </c>
+      <c r="B37" t="s">
+        <v>469</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>475</v>
+      </c>
+      <c r="E37" t="s">
+        <v>536</v>
+      </c>
+      <c r="F37" t="s">
+        <v>546</v>
+      </c>
+      <c r="G37" t="s">
+        <v>556</v>
+      </c>
+      <c r="H37" t="s">
+        <v>566</v>
+      </c>
+      <c r="I37" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>477</v>
+      </c>
+      <c r="B38" t="s">
+        <v>470</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>475</v>
+      </c>
+      <c r="E38" t="s">
+        <v>537</v>
+      </c>
+      <c r="F38" t="s">
+        <v>547</v>
+      </c>
+      <c r="G38" t="s">
+        <v>557</v>
+      </c>
+      <c r="H38" t="s">
+        <v>567</v>
+      </c>
+      <c r="I38" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>477</v>
+      </c>
+      <c r="B39" t="s">
+        <v>471</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>475</v>
+      </c>
+      <c r="E39" t="s">
+        <v>538</v>
+      </c>
+      <c r="F39" t="s">
+        <v>548</v>
+      </c>
+      <c r="G39" t="s">
+        <v>558</v>
+      </c>
+      <c r="H39" t="s">
+        <v>568</v>
+      </c>
+      <c r="I39" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>477</v>
+      </c>
+      <c r="B40" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>475</v>
+      </c>
+      <c r="E40" t="s">
+        <v>539</v>
+      </c>
+      <c r="F40" t="s">
+        <v>549</v>
+      </c>
+      <c r="G40" t="s">
+        <v>559</v>
+      </c>
+      <c r="H40" t="s">
+        <v>569</v>
+      </c>
+      <c r="I40" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>477</v>
+      </c>
+      <c r="B41" t="s">
+        <v>473</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>475</v>
+      </c>
+      <c r="E41" t="s">
+        <v>540</v>
+      </c>
+      <c r="F41" t="s">
+        <v>550</v>
+      </c>
+      <c r="G41" t="s">
+        <v>560</v>
+      </c>
+      <c r="H41" t="s">
+        <v>570</v>
+      </c>
+      <c r="I41" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>477</v>
+      </c>
+      <c r="B42" t="s">
+        <v>469</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>476</v>
+      </c>
+      <c r="E42" t="s">
+        <v>536</v>
+      </c>
+      <c r="F42" t="s">
+        <v>546</v>
+      </c>
+      <c r="G42" t="s">
+        <v>556</v>
+      </c>
+      <c r="H42" t="s">
+        <v>566</v>
+      </c>
+      <c r="I42" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>477</v>
+      </c>
+      <c r="B43" t="s">
+        <v>470</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>476</v>
+      </c>
+      <c r="E43" t="s">
+        <v>537</v>
+      </c>
+      <c r="F43" t="s">
+        <v>547</v>
+      </c>
+      <c r="G43" t="s">
+        <v>557</v>
+      </c>
+      <c r="H43" t="s">
+        <v>567</v>
+      </c>
+      <c r="I43" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>477</v>
+      </c>
+      <c r="B44" t="s">
+        <v>471</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>476</v>
+      </c>
+      <c r="E44" t="s">
+        <v>538</v>
+      </c>
+      <c r="F44" t="s">
+        <v>548</v>
+      </c>
+      <c r="G44" t="s">
+        <v>558</v>
+      </c>
+      <c r="H44" t="s">
+        <v>568</v>
+      </c>
+      <c r="I44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>477</v>
+      </c>
+      <c r="B45" t="s">
+        <v>472</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>476</v>
+      </c>
+      <c r="E45" t="s">
+        <v>541</v>
+      </c>
+      <c r="F45" t="s">
+        <v>551</v>
+      </c>
+      <c r="G45" t="s">
+        <v>561</v>
+      </c>
+      <c r="H45" t="s">
+        <v>571</v>
+      </c>
+      <c r="I45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>477</v>
+      </c>
+      <c r="B46" t="s">
+        <v>473</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>476</v>
+      </c>
+      <c r="E46" t="s">
+        <v>540</v>
+      </c>
+      <c r="F46" t="s">
+        <v>550</v>
+      </c>
+      <c r="G46" t="s">
+        <v>560</v>
+      </c>
+      <c r="H46" t="s">
+        <v>570</v>
+      </c>
+      <c r="I46" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>477</v>
+      </c>
+      <c r="B47" t="s">
+        <v>469</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>474</v>
+      </c>
+      <c r="E47" t="s">
+        <v>542</v>
+      </c>
+      <c r="F47" t="s">
+        <v>552</v>
+      </c>
+      <c r="G47" t="s">
+        <v>562</v>
+      </c>
+      <c r="H47" t="s">
+        <v>572</v>
+      </c>
+      <c r="I47" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>477</v>
+      </c>
+      <c r="B48" t="s">
+        <v>470</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>474</v>
+      </c>
+      <c r="E48" t="s">
+        <v>543</v>
+      </c>
+      <c r="F48" t="s">
+        <v>553</v>
+      </c>
+      <c r="G48" t="s">
+        <v>563</v>
+      </c>
+      <c r="H48" t="s">
+        <v>573</v>
+      </c>
+      <c r="I48" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>477</v>
+      </c>
+      <c r="B49" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>474</v>
+      </c>
+      <c r="E49" t="s">
+        <v>544</v>
+      </c>
+      <c r="F49" t="s">
+        <v>554</v>
+      </c>
+      <c r="G49" t="s">
+        <v>564</v>
+      </c>
+      <c r="H49" t="s">
+        <v>574</v>
+      </c>
+      <c r="I49" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B50" t="s">
+        <v>472</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>474</v>
+      </c>
+      <c r="E50" t="s">
+        <v>542</v>
+      </c>
+      <c r="F50" t="s">
+        <v>552</v>
+      </c>
+      <c r="G50" t="s">
+        <v>562</v>
+      </c>
+      <c r="H50" t="s">
+        <v>572</v>
+      </c>
+      <c r="I50" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>477</v>
+      </c>
+      <c r="B51" t="s">
+        <v>473</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>474</v>
+      </c>
+      <c r="E51" t="s">
+        <v>544</v>
+      </c>
+      <c r="F51" t="s">
+        <v>554</v>
+      </c>
+      <c r="G51" t="s">
+        <v>564</v>
+      </c>
+      <c r="H51" t="s">
+        <v>574</v>
+      </c>
+      <c r="I51" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>477</v>
+      </c>
+      <c r="B52" t="s">
+        <v>469</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>475</v>
+      </c>
+      <c r="E52" t="s">
+        <v>542</v>
+      </c>
+      <c r="F52" t="s">
+        <v>552</v>
+      </c>
+      <c r="G52" t="s">
+        <v>562</v>
+      </c>
+      <c r="H52" t="s">
+        <v>572</v>
+      </c>
+      <c r="I52" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>477</v>
+      </c>
+      <c r="B53" t="s">
+        <v>470</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>475</v>
+      </c>
+      <c r="E53" t="s">
+        <v>543</v>
+      </c>
+      <c r="F53" t="s">
+        <v>553</v>
+      </c>
+      <c r="G53" t="s">
+        <v>563</v>
+      </c>
+      <c r="H53" t="s">
+        <v>573</v>
+      </c>
+      <c r="I53" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>477</v>
+      </c>
+      <c r="B54" t="s">
+        <v>471</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>475</v>
+      </c>
+      <c r="E54" t="s">
+        <v>544</v>
+      </c>
+      <c r="F54" t="s">
+        <v>554</v>
+      </c>
+      <c r="G54" t="s">
+        <v>564</v>
+      </c>
+      <c r="H54" t="s">
+        <v>574</v>
+      </c>
+      <c r="I54" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>477</v>
+      </c>
+      <c r="B55" t="s">
+        <v>472</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>475</v>
+      </c>
+      <c r="E55" t="s">
+        <v>542</v>
+      </c>
+      <c r="F55" t="s">
+        <v>552</v>
+      </c>
+      <c r="G55" t="s">
+        <v>562</v>
+      </c>
+      <c r="H55" t="s">
+        <v>572</v>
+      </c>
+      <c r="I55" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>477</v>
+      </c>
+      <c r="B56" t="s">
+        <v>473</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>475</v>
+      </c>
+      <c r="E56" t="s">
+        <v>544</v>
+      </c>
+      <c r="F56" t="s">
+        <v>554</v>
+      </c>
+      <c r="G56" t="s">
+        <v>564</v>
+      </c>
+      <c r="H56" t="s">
+        <v>574</v>
+      </c>
+      <c r="I56" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>477</v>
+      </c>
+      <c r="B57" t="s">
+        <v>469</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>476</v>
+      </c>
+      <c r="E57" t="s">
+        <v>545</v>
+      </c>
+      <c r="F57" t="s">
+        <v>555</v>
+      </c>
+      <c r="G57" t="s">
+        <v>565</v>
+      </c>
+      <c r="H57" t="s">
+        <v>575</v>
+      </c>
+      <c r="I57" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>477</v>
+      </c>
+      <c r="B58" t="s">
+        <v>470</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>476</v>
+      </c>
+      <c r="E58" t="s">
+        <v>543</v>
+      </c>
+      <c r="F58" t="s">
+        <v>553</v>
+      </c>
+      <c r="G58" t="s">
+        <v>563</v>
+      </c>
+      <c r="H58" t="s">
+        <v>573</v>
+      </c>
+      <c r="I58" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>477</v>
+      </c>
+      <c r="B59" t="s">
+        <v>471</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>476</v>
+      </c>
+      <c r="E59" t="s">
+        <v>544</v>
+      </c>
+      <c r="F59" t="s">
+        <v>554</v>
+      </c>
+      <c r="G59" t="s">
+        <v>564</v>
+      </c>
+      <c r="H59" t="s">
+        <v>574</v>
+      </c>
+      <c r="I59" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>477</v>
+      </c>
+      <c r="B60" t="s">
+        <v>472</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>476</v>
+      </c>
+      <c r="E60" t="s">
+        <v>545</v>
+      </c>
+      <c r="F60" t="s">
+        <v>555</v>
+      </c>
+      <c r="G60" t="s">
+        <v>565</v>
+      </c>
+      <c r="H60" t="s">
+        <v>575</v>
+      </c>
+      <c r="I60" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>477</v>
+      </c>
+      <c r="B61" t="s">
+        <v>473</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>476</v>
+      </c>
+      <c r="E61" t="s">
+        <v>544</v>
+      </c>
+      <c r="F61" t="s">
+        <v>554</v>
+      </c>
+      <c r="G61" t="s">
+        <v>564</v>
+      </c>
+      <c r="H61" t="s">
+        <v>574</v>
+      </c>
+      <c r="I61" t="s">
+        <v>584</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Muster_Worte.xlsx
+++ b/Muster_Worte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ktglbuc-my.sharepoint.com/personal/bernd_christian_kantar_com/Documents/Documents/DEVELOPMENT/PYTHON/HELPTOOLS/LATEIN_TRAIN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christianb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="700" documentId="8_{8276E646-E70E-4281-9184-4BF756554AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F889FE36-DFC8-40F9-8EAE-E183CCB3BAF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55E2099-C94A-467F-9CFE-709D362B7EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5E7EAF3B-007D-43D8-A9E6-77B1501C31A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5E7EAF3B-007D-43D8-A9E6-77B1501C31A6}"/>
   </bookViews>
   <sheets>
     <sheet name="substantive" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="803">
   <si>
     <t>Kasus</t>
   </si>
@@ -2266,6 +2266,279 @@
   </si>
   <si>
     <t>genus</t>
+  </si>
+  <si>
+    <t>Konjunktiv Praesens</t>
+  </si>
+  <si>
+    <t>clamem</t>
+  </si>
+  <si>
+    <t>clames</t>
+  </si>
+  <si>
+    <t>clamet</t>
+  </si>
+  <si>
+    <t>clamemus</t>
+  </si>
+  <si>
+    <t>clametis</t>
+  </si>
+  <si>
+    <t>clament</t>
+  </si>
+  <si>
+    <t>teneam</t>
+  </si>
+  <si>
+    <t>teneas</t>
+  </si>
+  <si>
+    <t>teneat</t>
+  </si>
+  <si>
+    <t>teneamus</t>
+  </si>
+  <si>
+    <t>teneatis</t>
+  </si>
+  <si>
+    <t>teneant</t>
+  </si>
+  <si>
+    <t>audias</t>
+  </si>
+  <si>
+    <t>audiat</t>
+  </si>
+  <si>
+    <t>audiamus</t>
+  </si>
+  <si>
+    <t>audiatis</t>
+  </si>
+  <si>
+    <t>audiant</t>
+  </si>
+  <si>
+    <t>cupias</t>
+  </si>
+  <si>
+    <t>cupiat</t>
+  </si>
+  <si>
+    <t>cupiamus</t>
+  </si>
+  <si>
+    <t>cupiatis</t>
+  </si>
+  <si>
+    <t>cupiant</t>
+  </si>
+  <si>
+    <t>clamer</t>
+  </si>
+  <si>
+    <t>clameris</t>
+  </si>
+  <si>
+    <t>clametur</t>
+  </si>
+  <si>
+    <t>clamemur</t>
+  </si>
+  <si>
+    <t>clamemini</t>
+  </si>
+  <si>
+    <t>clamentur</t>
+  </si>
+  <si>
+    <t>tenear</t>
+  </si>
+  <si>
+    <t>tenearis</t>
+  </si>
+  <si>
+    <t>teneatur</t>
+  </si>
+  <si>
+    <t>teneamur</t>
+  </si>
+  <si>
+    <t>teneamini</t>
+  </si>
+  <si>
+    <t>teneantur</t>
+  </si>
+  <si>
+    <t>audiaris</t>
+  </si>
+  <si>
+    <t>audiatur</t>
+  </si>
+  <si>
+    <t>audiamur</t>
+  </si>
+  <si>
+    <t>audiamini</t>
+  </si>
+  <si>
+    <t>audiantur</t>
+  </si>
+  <si>
+    <t>agas</t>
+  </si>
+  <si>
+    <t>agat</t>
+  </si>
+  <si>
+    <t>agamus</t>
+  </si>
+  <si>
+    <t>agatis</t>
+  </si>
+  <si>
+    <t>agant</t>
+  </si>
+  <si>
+    <t>agaris</t>
+  </si>
+  <si>
+    <t>agatur</t>
+  </si>
+  <si>
+    <t>agamur</t>
+  </si>
+  <si>
+    <t>agamini</t>
+  </si>
+  <si>
+    <t>agantur</t>
+  </si>
+  <si>
+    <t>cupiaris</t>
+  </si>
+  <si>
+    <t>cupiatur</t>
+  </si>
+  <si>
+    <t>cupiamur</t>
+  </si>
+  <si>
+    <t>cupiamini</t>
+  </si>
+  <si>
+    <t>cupiantur</t>
+  </si>
+  <si>
+    <t>Konjunktiv Perfekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clamaverim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenuerim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">audiverim </t>
+  </si>
+  <si>
+    <t>egerim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cupiverim </t>
+  </si>
+  <si>
+    <t>clamatus sim</t>
+  </si>
+  <si>
+    <t>clamata sis</t>
+  </si>
+  <si>
+    <t>clamatum sit</t>
+  </si>
+  <si>
+    <t>clamati simus</t>
+  </si>
+  <si>
+    <t>clamatae sitis</t>
+  </si>
+  <si>
+    <t>clamata sint</t>
+  </si>
+  <si>
+    <t>tenitus sim</t>
+  </si>
+  <si>
+    <t>tenita sis</t>
+  </si>
+  <si>
+    <t>auditus sim</t>
+  </si>
+  <si>
+    <t>actus sim</t>
+  </si>
+  <si>
+    <t>cupitus sim</t>
+  </si>
+  <si>
+    <t>audita sis</t>
+  </si>
+  <si>
+    <t>acta sis</t>
+  </si>
+  <si>
+    <t>cupita sis</t>
+  </si>
+  <si>
+    <t>tenitum sit</t>
+  </si>
+  <si>
+    <t>auditum sit</t>
+  </si>
+  <si>
+    <t>actum sit</t>
+  </si>
+  <si>
+    <t>cupitum sit</t>
+  </si>
+  <si>
+    <t>teniti simus</t>
+  </si>
+  <si>
+    <t>auditi simus</t>
+  </si>
+  <si>
+    <t>acti simus</t>
+  </si>
+  <si>
+    <t>cupiti simus</t>
+  </si>
+  <si>
+    <t>tenitae sitis</t>
+  </si>
+  <si>
+    <t>auditae sitis</t>
+  </si>
+  <si>
+    <t>actae sitis</t>
+  </si>
+  <si>
+    <t>cupitae sitis</t>
+  </si>
+  <si>
+    <t>tenita sint</t>
+  </si>
+  <si>
+    <t>audita sint</t>
+  </si>
+  <si>
+    <t>acta sint</t>
+  </si>
+  <si>
+    <t>cupita sint</t>
   </si>
 </sst>
 </file>
@@ -2309,8 +2582,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2326,10 +2600,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2999,10 +3269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64195B45-DBAB-4E67-AFA4-C35B0055E6C0}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5918,6 +6188,702 @@
         <v>707</v>
       </c>
     </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>767</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" t="s">
+        <v>768</v>
+      </c>
+      <c r="F114" t="s">
+        <v>769</v>
+      </c>
+      <c r="G114" t="s">
+        <v>770</v>
+      </c>
+      <c r="H114" t="s">
+        <v>771</v>
+      </c>
+      <c r="I114" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>767</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" t="s">
+        <v>287</v>
+      </c>
+      <c r="F115" t="s">
+        <v>293</v>
+      </c>
+      <c r="G115" t="s">
+        <v>299</v>
+      </c>
+      <c r="H115" t="s">
+        <v>305</v>
+      </c>
+      <c r="I115" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>767</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" t="s">
+        <v>288</v>
+      </c>
+      <c r="F116" t="s">
+        <v>294</v>
+      </c>
+      <c r="G116" t="s">
+        <v>300</v>
+      </c>
+      <c r="H116" t="s">
+        <v>308</v>
+      </c>
+      <c r="I116" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>767</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" t="s">
+        <v>289</v>
+      </c>
+      <c r="F117" t="s">
+        <v>295</v>
+      </c>
+      <c r="G117" t="s">
+        <v>301</v>
+      </c>
+      <c r="H117" t="s">
+        <v>306</v>
+      </c>
+      <c r="I117" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>767</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" t="s">
+        <v>290</v>
+      </c>
+      <c r="F118" t="s">
+        <v>296</v>
+      </c>
+      <c r="G118" t="s">
+        <v>302</v>
+      </c>
+      <c r="H118" t="s">
+        <v>307</v>
+      </c>
+      <c r="I118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>767</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" t="s">
+        <v>291</v>
+      </c>
+      <c r="F119" t="s">
+        <v>297</v>
+      </c>
+      <c r="G119" t="s">
+        <v>303</v>
+      </c>
+      <c r="H119" t="s">
+        <v>309</v>
+      </c>
+      <c r="I119" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>767</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" t="s">
+        <v>773</v>
+      </c>
+      <c r="F120" t="s">
+        <v>779</v>
+      </c>
+      <c r="G120" t="s">
+        <v>781</v>
+      </c>
+      <c r="H120" t="s">
+        <v>782</v>
+      </c>
+      <c r="I120" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>767</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>39</v>
+      </c>
+      <c r="E121" t="s">
+        <v>774</v>
+      </c>
+      <c r="F121" t="s">
+        <v>780</v>
+      </c>
+      <c r="G121" t="s">
+        <v>784</v>
+      </c>
+      <c r="H121" t="s">
+        <v>785</v>
+      </c>
+      <c r="I121" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>767</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" t="s">
+        <v>775</v>
+      </c>
+      <c r="F122" t="s">
+        <v>787</v>
+      </c>
+      <c r="G122" t="s">
+        <v>788</v>
+      </c>
+      <c r="H122" t="s">
+        <v>789</v>
+      </c>
+      <c r="I122" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>767</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" t="s">
+        <v>776</v>
+      </c>
+      <c r="F123" t="s">
+        <v>791</v>
+      </c>
+      <c r="G123" t="s">
+        <v>792</v>
+      </c>
+      <c r="H123" t="s">
+        <v>793</v>
+      </c>
+      <c r="I123" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>767</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" t="s">
+        <v>777</v>
+      </c>
+      <c r="F124" t="s">
+        <v>795</v>
+      </c>
+      <c r="G124" t="s">
+        <v>796</v>
+      </c>
+      <c r="H124" t="s">
+        <v>797</v>
+      </c>
+      <c r="I124" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>767</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" t="s">
+        <v>778</v>
+      </c>
+      <c r="F125" t="s">
+        <v>799</v>
+      </c>
+      <c r="G125" t="s">
+        <v>800</v>
+      </c>
+      <c r="H125" t="s">
+        <v>801</v>
+      </c>
+      <c r="I125" t="s">
+        <v>802</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5928,7 +6894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6721CA-BCF3-400D-8374-412832E2C339}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
